--- a/biology/Botanique/Dentelure/Dentelure.xlsx
+++ b/biology/Botanique/Dentelure/Dentelure.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dentelure réfère généralement à l'apparence en dents de scie d'un objet sur ses côtés.
 </t>
@@ -511,7 +523,9 @@
           <t>Nature</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En biologie, la dentelure est généralement vue sur les bords des dents de certaines espèces, en particulier les requins. Elle apparait également en botanique sur certaines parties de plantes. Sur une feuille, la dentelure permettrait de réduire la force résultante du vent et d'autres éléments naturels. 
 En géographie, la dentelure réfère à la partie la plus haute de chaîne de montagnes (en espagnol, on parle de sierra).
@@ -543,9 +557,11 @@
           <t>Objets manufacturés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La dentelure se retrouve sur plusieurs types d'objets. En effet, lorsqu'appliqué sur une surface, un bord dentelé présente plusieurs petits points de contact, ce qui fait en sorte que son aire de contact (en) est plus faible que celle d'un bord lisse. En conséquence, la pression exercée aux points de contact est plus grande et facilite, entre autres, la coupure par de multiples perforations de la surface tranchée[1]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La dentelure se retrouve sur plusieurs types d'objets. En effet, lorsqu'appliqué sur une surface, un bord dentelé présente plusieurs petits points de contact, ce qui fait en sorte que son aire de contact (en) est plus faible que celle d'un bord lisse. En conséquence, la pression exercée aux points de contact est plus grande et facilite, entre autres, la coupure par de multiples perforations de la surface tranchée. 
 En philatélie, la dentelure réfère au bord dentelé d'un timbre.
 </t>
         </is>
